--- a/bases_dados/ativos_dados_cadastrais.xlsx
+++ b/bases_dados/ativos_dados_cadastrais.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ações" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="2751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="2754">
   <si>
     <t>Ticker</t>
   </si>
@@ -8284,6 +8284,15 @@
   </si>
   <si>
     <t>Puxa categorias com PROCV, qdo não acha: 'Não encontrado'</t>
+  </si>
+  <si>
+    <t>Segmento Inv. 10</t>
+  </si>
+  <si>
+    <t>FIAgro</t>
+  </si>
+  <si>
+    <t>FIInfra</t>
   </si>
 </sst>
 </file>
@@ -8321,7 +8330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8343,6 +8352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8374,7 +8389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8386,6 +8401,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17065,7 +17082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -24779,10 +24796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E42"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24791,9 +24808,10 @@
     <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24807,10 +24825,13 @@
         <v>2707</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2486</v>
       </c>
@@ -24828,8 +24849,11 @@
         <f>IFERROR(VLOOKUP(A2,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2489</v>
       </c>
@@ -24847,8 +24871,11 @@
         <f>IFERROR(VLOOKUP(A3,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2492</v>
       </c>
@@ -24866,8 +24893,11 @@
         <f>IFERROR(VLOOKUP(A4,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2495</v>
       </c>
@@ -24885,8 +24915,11 @@
         <f>IFERROR(VLOOKUP(A5,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2498</v>
       </c>
@@ -24904,8 +24937,11 @@
         <f>IFERROR(VLOOKUP(A6,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2501</v>
       </c>
@@ -24923,8 +24959,11 @@
         <f>IFERROR(VLOOKUP(A7,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2503</v>
       </c>
@@ -24942,8 +24981,11 @@
         <f>IFERROR(VLOOKUP(A8,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="8" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2506</v>
       </c>
@@ -24961,8 +25003,11 @@
         <f>IFERROR(VLOOKUP(A9,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2509</v>
       </c>
@@ -24980,8 +25025,11 @@
         <f>IFERROR(VLOOKUP(A10,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2512</v>
       </c>
@@ -24999,8 +25047,11 @@
         <f>IFERROR(VLOOKUP(A11,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2515</v>
       </c>
@@ -25018,8 +25069,11 @@
         <f>IFERROR(VLOOKUP(A12,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2518</v>
       </c>
@@ -25037,8 +25091,11 @@
         <f>IFERROR(VLOOKUP(A13,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2521</v>
       </c>
@@ -25056,8 +25113,11 @@
         <f>IFERROR(VLOOKUP(A14,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2524</v>
       </c>
@@ -25075,8 +25135,11 @@
         <f>IFERROR(VLOOKUP(A15,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2527</v>
       </c>
@@ -25094,8 +25157,11 @@
         <f>IFERROR(VLOOKUP(A16,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2530</v>
       </c>
@@ -25113,8 +25179,11 @@
         <f>IFERROR(VLOOKUP(A17,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2533</v>
       </c>
@@ -25132,8 +25201,11 @@
         <f>IFERROR(VLOOKUP(A18,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2536</v>
       </c>
@@ -25151,8 +25223,11 @@
         <f>IFERROR(VLOOKUP(A19,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2538</v>
       </c>
@@ -25170,8 +25245,11 @@
         <f>IFERROR(VLOOKUP(A20,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2539</v>
       </c>
@@ -25189,8 +25267,11 @@
         <f>IFERROR(VLOOKUP(A21,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2542</v>
       </c>
@@ -25208,8 +25289,11 @@
         <f>IFERROR(VLOOKUP(A22,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2545</v>
       </c>
@@ -25227,8 +25311,11 @@
         <f>IFERROR(VLOOKUP(A23,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2548</v>
       </c>
@@ -25246,8 +25333,11 @@
         <f>IFERROR(VLOOKUP(A24,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2551</v>
       </c>
@@ -25265,8 +25355,11 @@
         <f>IFERROR(VLOOKUP(A25,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2554</v>
       </c>
@@ -25284,8 +25377,11 @@
         <f>IFERROR(VLOOKUP(A26,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2557</v>
       </c>
@@ -25303,8 +25399,11 @@
         <f>IFERROR(VLOOKUP(A27,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2560</v>
       </c>
@@ -25322,8 +25421,11 @@
         <f>IFERROR(VLOOKUP(A28,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2563</v>
       </c>
@@ -25341,8 +25443,11 @@
         <f>IFERROR(VLOOKUP(A29,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2564</v>
       </c>
@@ -25360,8 +25465,11 @@
         <f>IFERROR(VLOOKUP(A30,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2567</v>
       </c>
@@ -25379,8 +25487,11 @@
         <f>IFERROR(VLOOKUP(A31,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2570</v>
       </c>
@@ -25398,8 +25509,11 @@
         <f>IFERROR(VLOOKUP(A32,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2573</v>
       </c>
@@ -25417,8 +25531,11 @@
         <f>IFERROR(VLOOKUP(A33,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2576</v>
       </c>
@@ -25436,8 +25553,11 @@
         <f>IFERROR(VLOOKUP(A34,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2579</v>
       </c>
@@ -25455,8 +25575,11 @@
         <f>IFERROR(VLOOKUP(A35,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2582</v>
       </c>
@@ -25474,8 +25597,11 @@
         <f>IFERROR(VLOOKUP(A36,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2585</v>
       </c>
@@ -25493,8 +25619,11 @@
         <f>IFERROR(VLOOKUP(A37,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2588</v>
       </c>
@@ -25512,8 +25641,11 @@
         <f>IFERROR(VLOOKUP(A38,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2591</v>
       </c>
@@ -25531,8 +25663,11 @@
         <f>IFERROR(VLOOKUP(A39,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2594</v>
       </c>
@@ -25550,8 +25685,11 @@
         <f>IFERROR(VLOOKUP(A40,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2597</v>
       </c>
@@ -25569,8 +25707,11 @@
         <f>IFERROR(VLOOKUP(A41,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2600</v>
       </c>
@@ -25588,19 +25729,22 @@
         <f>IFERROR(VLOOKUP(A42,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fiagros</v>
       </c>
+      <c r="F42" s="7" t="s">
+        <v>2752</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E42"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25610,9 +25754,10 @@
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25626,10 +25771,13 @@
         <v>2707</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2603</v>
       </c>
@@ -25647,8 +25795,11 @@
         <f>IFERROR(VLOOKUP(A2,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2606</v>
       </c>
@@ -25666,8 +25817,11 @@
         <f>IFERROR(VLOOKUP(A3,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2609</v>
       </c>
@@ -25685,8 +25839,11 @@
         <f>IFERROR(VLOOKUP(A4,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2612</v>
       </c>
@@ -25704,8 +25861,11 @@
         <f>IFERROR(VLOOKUP(A5,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2615</v>
       </c>
@@ -25723,8 +25883,11 @@
         <f>IFERROR(VLOOKUP(A6,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2618</v>
       </c>
@@ -25742,8 +25905,11 @@
         <f>IFERROR(VLOOKUP(A7,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2621</v>
       </c>
@@ -25761,8 +25927,11 @@
         <f>IFERROR(VLOOKUP(A8,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2624</v>
       </c>
@@ -25780,8 +25949,11 @@
         <f>IFERROR(VLOOKUP(A9,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2627</v>
       </c>
@@ -25799,8 +25971,11 @@
         <f>IFERROR(VLOOKUP(A10,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2630</v>
       </c>
@@ -25818,8 +25993,11 @@
         <f>IFERROR(VLOOKUP(A11,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2633</v>
       </c>
@@ -25837,8 +26015,11 @@
         <f>IFERROR(VLOOKUP(A12,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2636</v>
       </c>
@@ -25856,8 +26037,11 @@
         <f>IFERROR(VLOOKUP(A13,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2639</v>
       </c>
@@ -25875,8 +26059,11 @@
         <f>IFERROR(VLOOKUP(A14,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2642</v>
       </c>
@@ -25894,8 +26081,11 @@
         <f>IFERROR(VLOOKUP(A15,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2645</v>
       </c>
@@ -25913,8 +26103,11 @@
         <f>IFERROR(VLOOKUP(A16,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2648</v>
       </c>
@@ -25932,8 +26125,11 @@
         <f>IFERROR(VLOOKUP(A17,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2651</v>
       </c>
@@ -25951,8 +26147,11 @@
         <f>IFERROR(VLOOKUP(A18,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2654</v>
       </c>
@@ -25970,8 +26169,11 @@
         <f>IFERROR(VLOOKUP(A19,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2657</v>
       </c>
@@ -25989,8 +26191,11 @@
         <f>IFERROR(VLOOKUP(A20,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2660</v>
       </c>
@@ -26008,8 +26213,11 @@
         <f>IFERROR(VLOOKUP(A21,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2663</v>
       </c>
@@ -26027,8 +26235,11 @@
         <f>IFERROR(VLOOKUP(A22,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2666</v>
       </c>
@@ -26046,8 +26257,11 @@
         <f>IFERROR(VLOOKUP(A23,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2669</v>
       </c>
@@ -26065,8 +26279,11 @@
         <f>IFERROR(VLOOKUP(A24,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2672</v>
       </c>
@@ -26084,8 +26301,11 @@
         <f>IFERROR(VLOOKUP(A25,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2675</v>
       </c>
@@ -26103,8 +26323,11 @@
         <f>IFERROR(VLOOKUP(A26,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2678</v>
       </c>
@@ -26122,8 +26345,11 @@
         <f>IFERROR(VLOOKUP(A27,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2681</v>
       </c>
@@ -26141,8 +26367,11 @@
         <f>IFERROR(VLOOKUP(A28,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Não encontrado</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2684</v>
       </c>
@@ -26160,8 +26389,11 @@
         <f>IFERROR(VLOOKUP(A29,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2687</v>
       </c>
@@ -26179,8 +26411,11 @@
         <f>IFERROR(VLOOKUP(A30,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2690</v>
       </c>
@@ -26198,9 +26433,11 @@
         <f>IFERROR(VLOOKUP(A31,base_fiis_inv10!$A$1:$C$282,3,FALSE),"Não encontrado")</f>
         <v>Fundo de Infraestrutura (FI-Infra)</v>
       </c>
+      <c r="F31" s="7" t="s">
+        <v>2753</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E31"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/bases_dados/ativos_dados_cadastrais.xlsx
+++ b/bases_dados/ativos_dados_cadastrais.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ações" sheetId="1" r:id="rId1"/>
@@ -8402,7 +8402,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24798,8 +24798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25743,8 +25743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
